--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>493.4623407914262</v>
+        <v>1851.979527694226</v>
       </c>
       <c r="R2">
-        <v>4441.161067122835</v>
+        <v>16667.81574924803</v>
       </c>
       <c r="S2">
-        <v>0.04887862743580028</v>
+        <v>0.1346325610580488</v>
       </c>
       <c r="T2">
-        <v>0.04887862743580029</v>
+        <v>0.1346325610580489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>639.101257530257</v>
+        <v>1631.700758747879</v>
       </c>
       <c r="R3">
-        <v>5751.911317772313</v>
+        <v>14685.30682873091</v>
       </c>
       <c r="S3">
-        <v>0.06330451116182853</v>
+        <v>0.1186190499114735</v>
       </c>
       <c r="T3">
-        <v>0.06330451116182856</v>
+        <v>0.1186190499114735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>181.6935535250438</v>
+        <v>514.8480066784933</v>
       </c>
       <c r="R4">
-        <v>1635.241981725394</v>
+        <v>4633.632060106441</v>
       </c>
       <c r="S4">
-        <v>0.017997181904487</v>
+        <v>0.03742768462514096</v>
       </c>
       <c r="T4">
-        <v>0.017997181904487</v>
+        <v>0.03742768462514098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>400.8766454799618</v>
+        <v>684.4884701639839</v>
       </c>
       <c r="R5">
-        <v>3607.889809319656</v>
+        <v>6160.396231475856</v>
       </c>
       <c r="S5">
-        <v>0.03970779243397309</v>
+        <v>0.04975996460804199</v>
       </c>
       <c r="T5">
-        <v>0.03970779243397309</v>
+        <v>0.04975996460804201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>1294.248933277174</v>
+        <v>1902.519598763188</v>
       </c>
       <c r="R6">
-        <v>11648.24039949457</v>
+        <v>17122.67638886869</v>
       </c>
       <c r="S6">
-        <v>0.1281984585031905</v>
+        <v>0.1383066509182871</v>
       </c>
       <c r="T6">
-        <v>0.1281984585031905</v>
+        <v>0.1383066509182871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>1676.229475765108</v>
@@ -883,10 +883,10 @@
         <v>15086.06528188597</v>
       </c>
       <c r="S7">
-        <v>0.1660345466513725</v>
+        <v>0.1218561349456275</v>
       </c>
       <c r="T7">
-        <v>0.1660345466513725</v>
+        <v>0.1218561349456275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>476.544344713271</v>
+        <v>528.8980836140851</v>
       </c>
       <c r="R8">
-        <v>4288.899102419439</v>
+        <v>4760.082752526765</v>
       </c>
       <c r="S8">
-        <v>0.04720285938035307</v>
+        <v>0.03844907703937376</v>
       </c>
       <c r="T8">
-        <v>0.04720285938035307</v>
+        <v>0.03844907703937377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>1051.415939777804</v>
+        <v>703.167994106154</v>
       </c>
       <c r="R9">
-        <v>9462.743458000235</v>
+        <v>6328.511946955386</v>
       </c>
       <c r="S9">
-        <v>0.1041452685488376</v>
+        <v>0.0511179019448605</v>
       </c>
       <c r="T9">
-        <v>0.1041452685488376</v>
+        <v>0.05111790194486051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>1116.4165724904</v>
+        <v>1682.088076018847</v>
       </c>
       <c r="R10">
-        <v>10047.7491524136</v>
+        <v>15138.79268416962</v>
       </c>
       <c r="S10">
-        <v>0.1105837369927612</v>
+        <v>0.1222820350944041</v>
       </c>
       <c r="T10">
-        <v>0.1105837369927612</v>
+        <v>0.1222820350944041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>1445.912233670965</v>
+        <v>1482.016592990047</v>
       </c>
       <c r="R11">
-        <v>13013.21010303868</v>
+        <v>13338.14933691042</v>
       </c>
       <c r="S11">
-        <v>0.1432210718676525</v>
+        <v>0.1077375243414231</v>
       </c>
       <c r="T11">
-        <v>0.1432210718676525</v>
+        <v>0.1077375243414232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>411.0662101280147</v>
+        <v>467.618394288725</v>
       </c>
       <c r="R12">
-        <v>3699.595891152132</v>
+        <v>4208.565548598525</v>
       </c>
       <c r="S12">
-        <v>0.04071709323161125</v>
+        <v>0.03399425375901784</v>
       </c>
       <c r="T12">
-        <v>0.04071709323161125</v>
+        <v>0.03399425375901786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>906.9493121205657</v>
+        <v>621.6968798076899</v>
       </c>
       <c r="R13">
-        <v>8162.543809085091</v>
+        <v>5595.271918269209</v>
       </c>
       <c r="S13">
-        <v>0.08983550286572689</v>
+        <v>0.04519523130718257</v>
       </c>
       <c r="T13">
-        <v>0.08983550286572692</v>
+        <v>0.04519523130718258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>0.5035150069755555</v>
+        <v>3.383283276514222</v>
       </c>
       <c r="R14">
-        <v>4.53163506278</v>
+        <v>30.449549488628</v>
       </c>
       <c r="S14">
-        <v>4.987436811251022E-05</v>
+        <v>0.0002459530926181936</v>
       </c>
       <c r="T14">
-        <v>4.987436811251022E-05</v>
+        <v>0.0002459530926181937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>0.6521208358622224</v>
+        <v>2.980867664460888</v>
       </c>
       <c r="R15">
-        <v>5.86908752276</v>
+        <v>26.827808980148</v>
       </c>
       <c r="S15">
-        <v>6.459413159697403E-05</v>
+        <v>0.0002166988575414506</v>
       </c>
       <c r="T15">
-        <v>6.459413159697404E-05</v>
+        <v>0.0002166988575414506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>0.1853949598744445</v>
+        <v>0.9405485454316667</v>
       </c>
       <c r="R16">
-        <v>1.66855463887</v>
+        <v>8.464936908885001</v>
       </c>
       <c r="S16">
-        <v>1.836381507379977E-05</v>
+        <v>6.83746540268425E-05</v>
       </c>
       <c r="T16">
-        <v>1.836381507379977E-05</v>
+        <v>6.837465402684252E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>0.4090431837644444</v>
+        <v>1.250455720186</v>
       </c>
       <c r="R17">
-        <v>3.68138865388</v>
+        <v>11.254101481674</v>
       </c>
       <c r="S17">
-        <v>4.05167076221255E-05</v>
+        <v>9.090384293174762E-05</v>
       </c>
       <c r="T17">
-        <v>4.05167076221255E-05</v>
+        <v>9.090384293174764E-05</v>
       </c>
     </row>
   </sheetData>
